--- a/ECS 202/Assignment/ESTOC_TS_Data_1995-2009.xlsx
+++ b/ECS 202/Assignment/ESTOC_TS_Data_1995-2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IISER\Labs\ECS 202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IISER\Labs\ECS 202\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FFF0F-B399-499F-B1B8-378149980C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD6A85-AFA7-4607-A01D-0E2C31AB79F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESTOC_TS_Data_1995-2009" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SST" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SST!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SST!$A$1:$F$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="35">
   <si>
     <t>STATION</t>
   </si>
@@ -136,13 +136,16 @@
   <si>
     <t>December</t>
   </si>
+  <si>
+    <t>Day Rounded</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -629,7 +632,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4879,7 +4882,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SST!$H$1</c:f>
+              <c:f>SST!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4917,7 +4920,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>SST!$I$2:$I$13</c:f>
+                <c:f>SST!$J$2:$J$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -4962,7 +4965,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>SST!$I$2:$I$13</c:f>
+                <c:f>SST!$J$2:$J$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -5021,7 +5024,7 @@
           </c:errBars>
           <c:xVal>
             <c:strRef>
-              <c:f>SST!$G$2:$G$13</c:f>
+              <c:f>SST!$H$2:$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5065,7 +5068,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SST!$H$2:$H$13</c:f>
+              <c:f>SST!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5425,6 +5428,1321 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Sea Surface Temperature (°C)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SST!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SST (DEG_C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SST!$C$2:$C$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>23.943999999964944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.986499999980879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.987499999960164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.943999999964944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.002500000031205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.943999999964944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.003000000020847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.986499999980879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.00849999997331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9859999999912361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.988000000032798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.894000000037977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.887000000033595</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.982999999986987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.996000000016465</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.989000000012084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.997499999985394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.915500000040765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.004999999979418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.012499999973443</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.998499999964679</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.988500000022441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.990499999981012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.98349999997663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.421500000032665</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.405999999971982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.997999999975036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.414000000038641</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.788499999982605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.985500000018192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.986499999997477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.986000000007834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.795499999986987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.01549999999429</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87.015999999983933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.984500000038906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.015000000004648</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.846499999976231</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.823999999994157</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80.847500000038508</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.816500000000133</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.831499999988182</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.826000000035719</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>114.68300000001022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103.98850000003904</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.016999999963218</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115.01150000001076</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93.732000000040898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>113.00400000001673</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105.01050000003147</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97.016999999963218</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>111.25199999995857</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>116.2525000000312</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>104.2439999999749</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95.994999999970787</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>118.26000000002523</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.257999999983667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>105.26599999996733</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>115.26700000002961</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>98.257999999983667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>135.63399999997955</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>137.60499999998274</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>142.60549999997238</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>133.9914999999769</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>140.01399999995897</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>136.98449999997251</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>135.99899999997092</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>135.01349999996933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>143.99250000003917</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>136.98449999997251</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>140.67099999996003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>163.5565000000247</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>161.98700000000372</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>163.99449999999774</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>176.00299999997105</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>178.99599999996667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>165.01649999999017</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>158.00850000000651</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>159.06699999998978</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>151.00050000002284</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>190.49349999998526</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>184.9820000000409</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>183.01100000003771</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>196.4794999999765</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>181.0034999999607</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>198.01250000000664</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>194.98300000002018</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>209.51000000002523</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>194.98300000002018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>186.00400000003333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>238.3450000000073</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>238.92900000002669</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>221.91999999998075</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>234.98700000002032</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>234.91400000003864</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>270.24599999996667</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>260.28149999997822</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>243.01699999999641</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>269.99050000003081</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>256.99649999997291</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>254.98899999997889</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>244.9879999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>243.01699999999641</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>256.01099999997132</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>274.00550000001886</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>276.01300000001288</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>279.0060000000085</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>271.01250000002324</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>279.99150000001009</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>296.01499999997145</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>282.98450000000571</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>289.99249999998938</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>271.34100000002377</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>276.74299999999562</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>281.74349999998526</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>286.01399999999217</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>297.98599999997464</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>329.01099999998792</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>303.16900000000146</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>309.00900000002935</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>322.00300000000425</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>307.00150000003532</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>323.09799999997836</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>327.98899999999549</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>302.98649999996428</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>307.98700000003691</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>308.1694999999911</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>301.74550000002682</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>326.16400000003864</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>315.17749999997477</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>302.76750000001925</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>300.76000000002523</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>311.16651500001808</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>314.15549999998234</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>351.0205000000235</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>337.00449999997318</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>349.99850000003107</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>333.09900000004063</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>347.58949999997185</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>340.58149999998818</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>355.98450000002231</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>337.58849999999256</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>340.58149999998818</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>364.01449999999841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SST!$F$2:$F$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>19.196000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.9116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.614999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.881</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.786999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.651</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.075800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.433700000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.268899999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.288699999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.8935</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.071999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.963000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.605</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.459099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.818000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.212</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.709</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.669699999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.058</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.067</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.843</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.675999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.744</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.032</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.251999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20.120999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.690999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20.46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22.318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.077000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21.41</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.033999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.602</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.521999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.85</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.14</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.93</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.663499999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.044</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22.599</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>23.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>23.023</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>23.318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23.280999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23.437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23.616</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>23.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24.126000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>23.513000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>23.86</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.55</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23.632999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>22.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>22.841999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>23.367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>22.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>22.635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>23.401</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>22.753</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>23.65</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>23.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>22.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>23.050699999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>22.9316</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>23.977</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>23.4038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>23.216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>20.541</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>22.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>20.145</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>20.983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>21.115100000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20.7898</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20.388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>20.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>20.133099999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>19.989999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66CD-4760-8D97-5B9610FE59BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075081823"/>
+        <c:axId val="2077305775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2075081823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="380"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077305775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2077305775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="26"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>SST</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0">
+                    <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN">
+                  <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075081823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5546,6 +6864,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7649,6 +9007,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7771,15 +9645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7799,6 +9673,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F88AF4-06C1-4187-B537-30434F904100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13652,7 +15562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3286BE-A63C-47E9-810F-D49E80FF1B85}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -15697,20 +17607,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97893148-A7D3-4706-BE8A-B23D58A59BDF}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15721,3037 +17631,3616 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1996.0655999999999</v>
       </c>
       <c r="B2">
-        <f>_xlfn.FLOOR.MATH(A2)</f>
+        <f t="shared" ref="B2:B33" si="0">_xlfn.FLOOR.MATH(A2)</f>
         <v>1996</v>
       </c>
       <c r="C2">
-        <f>ROUND(MOD(A2,1)*365, 0)</f>
+        <f>MOD(A2, 1)*365</f>
+        <v>23.943999999964944</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D33" si="1">ROUND(MOD(A2,1)*365, 0)</f>
         <v>24</v>
       </c>
-      <c r="D2">
-        <f>_xlfn.CEILING.MATH(C2/30)</f>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="2">_xlfn.CEILING.MATH(D2/30)</f>
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>19.196000000000002</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
-        <f>AVERAGE(E2:E12)</f>
+      <c r="I2">
+        <f>AVERAGE(F2:F12)</f>
         <v>19.240963636363634</v>
       </c>
-      <c r="I2">
-        <f>_xlfn.STDEV.P(E2:E12)</f>
+      <c r="J2">
+        <f>_xlfn.STDEV.P(F2:F12)</f>
         <v>0.59208256069376552</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1997.0300999999999</v>
       </c>
       <c r="B3">
-        <f>_xlfn.FLOOR.MATH(A3)</f>
+        <f t="shared" si="0"/>
         <v>1997</v>
       </c>
       <c r="C3">
-        <f>ROUND(MOD(A3,1)*365, 0)</f>
+        <f t="shared" ref="C3:C66" si="3">MOD(A3, 1)*365</f>
+        <v>10.986499999980879</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D3">
-        <f>_xlfn.CEILING.MATH(C3/30)</f>
+      <c r="E3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19.466999999999999</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3">
-        <f>AVERAGE(E13:E29)</f>
+      <c r="I3">
+        <f>AVERAGE(F13:F29)</f>
         <v>18.745558823529414</v>
       </c>
-      <c r="I3">
-        <f>_xlfn.STDEV.P(E13:E29)</f>
+      <c r="J3">
+        <f>_xlfn.STDEV.P(F13:F29)</f>
         <v>0.48386598905411976</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1998.0574999999999</v>
       </c>
       <c r="B4">
-        <f>_xlfn.FLOOR.MATH(A4)</f>
+        <f t="shared" si="0"/>
         <v>1998</v>
       </c>
       <c r="C4">
-        <f>ROUND(MOD(A4,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>20.987499999960164</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D4">
-        <f>_xlfn.CEILING.MATH(C4/30)</f>
+      <c r="E4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>20.440000000000001</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4">
-        <f>AVERAGE(E30:E44)</f>
+      <c r="I4">
+        <f>AVERAGE(F30:F44)</f>
         <v>18.780140000000003</v>
       </c>
-      <c r="I4">
-        <f>_xlfn.STDEV.P(E30:E44)</f>
+      <c r="J4">
+        <f>_xlfn.STDEV.P(F30:F44)</f>
         <v>0.48431214837815789</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000.0655999999999</v>
       </c>
       <c r="B5">
-        <f>_xlfn.FLOOR.MATH(A5)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="C5">
-        <f>ROUND(MOD(A5,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>23.943999999964944</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D5">
-        <f>_xlfn.CEILING.MATH(C5/30)</f>
+      <c r="E5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>18.341999999999999</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5">
-        <f>AVERAGE(E45:E61)</f>
+      <c r="I5">
+        <f>AVERAGE(F45:F61)</f>
         <v>19.184894117647058</v>
       </c>
-      <c r="I5">
-        <f>_xlfn.STDEV.P(E45:E61)</f>
+      <c r="J5">
+        <f>_xlfn.STDEV.P(F45:F61)</f>
         <v>0.50570481214263863</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2001.0685000000001</v>
       </c>
       <c r="B6">
-        <f>_xlfn.FLOOR.MATH(A6)</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C6">
-        <f>ROUND(MOD(A6,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>25.002500000031205</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D6">
-        <f>_xlfn.CEILING.MATH(C6/30)</f>
+      <c r="E6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18.997</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6">
-        <f>AVERAGE(E62:E72)</f>
+      <c r="I6">
+        <f>AVERAGE(F62:F72)</f>
         <v>19.778636363636366</v>
       </c>
-      <c r="I6">
-        <f>_xlfn.STDEV.P(E62:E72)</f>
+      <c r="J6">
+        <f>_xlfn.STDEV.P(F62:F72)</f>
         <v>0.44348911490736953</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004.0655999999999</v>
       </c>
       <c r="B7">
-        <f>_xlfn.FLOOR.MATH(A7)</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C7">
-        <f>ROUND(MOD(A7,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>23.943999999964944</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D7">
-        <f>_xlfn.CEILING.MATH(C7/30)</f>
+      <c r="E7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19.37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7">
-        <f>AVERAGE(E73:E81)</f>
+      <c r="I7">
+        <f>AVERAGE(F73:F81)</f>
         <v>21.281222222222222</v>
       </c>
-      <c r="I7">
-        <f>_xlfn.STDEV.P(E73:E81)</f>
+      <c r="J7">
+        <f>_xlfn.STDEV.P(F73:F81)</f>
         <v>0.73224006048074097</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2004.0822000000001</v>
       </c>
       <c r="B8">
-        <f>_xlfn.FLOOR.MATH(A8)</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C8">
-        <f>ROUND(MOD(A8,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>30.003000000020847</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D8">
-        <f>_xlfn.CEILING.MATH(C8/30)</f>
+      <c r="E8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>19.37</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8">
-        <f>AVERAGE(E82:E91)</f>
+      <c r="I8">
+        <f>AVERAGE(F82:F91)</f>
         <v>21.763299999999997</v>
       </c>
-      <c r="I8">
-        <f>_xlfn.STDEV.P(E82:E91)</f>
+      <c r="J8">
+        <f>_xlfn.STDEV.P(F82:F91)</f>
         <v>0.81825119003885405</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2005.0300999999999</v>
       </c>
       <c r="B9">
-        <f>_xlfn.FLOOR.MATH(A9)</f>
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="C9">
-        <f>ROUND(MOD(A9,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>10.986499999980879</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9">
-        <f>_xlfn.CEILING.MATH(C9/30)</f>
+      <c r="E9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>18.248999999999999</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9">
-        <f>AVERAGE(E92:E96)</f>
+      <c r="I9">
+        <f>AVERAGE(F92:F96)</f>
         <v>22.964500000000001</v>
       </c>
-      <c r="I9">
-        <f>_xlfn.STDEV.P(E92:E96)</f>
+      <c r="J9">
+        <f>_xlfn.STDEV.P(F92:F96)</f>
         <v>0.41094135834690615</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2006.0328999999999</v>
       </c>
       <c r="B10">
-        <f>_xlfn.FLOOR.MATH(A10)</f>
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="C10">
-        <f>ROUND(MOD(A10,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>12.00849999997331</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D10">
-        <f>_xlfn.CEILING.MATH(C10/30)</f>
+      <c r="E10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>19.53</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10">
-        <f>AVERAGE(E97:E105)</f>
+      <c r="I10">
+        <f>AVERAGE(F97:F105)</f>
         <v>23.707666666666668</v>
       </c>
-      <c r="I10">
-        <f>_xlfn.STDEV.P(E97:E105)</f>
+      <c r="J10">
+        <f>_xlfn.STDEV.P(F97:F105)</f>
         <v>0.58340551934310647</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2007.0164</v>
       </c>
       <c r="B11">
-        <f>_xlfn.FLOOR.MATH(A11)</f>
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="C11">
-        <f>ROUND(MOD(A11,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>5.9859999999912361</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D11">
-        <f>_xlfn.CEILING.MATH(C11/30)</f>
+      <c r="E11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>19.777999999999999</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11">
-        <f>AVERAGE(E106:E118)</f>
+      <c r="I11">
+        <f>AVERAGE(F106:F118)</f>
         <v>23.600769230769227</v>
       </c>
-      <c r="I11">
-        <f>_xlfn.STDEV.P(E106:E118)</f>
+      <c r="J11">
+        <f>_xlfn.STDEV.P(F106:F118)</f>
         <v>0.39589006901608725</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009.0712000000001</v>
       </c>
       <c r="B12">
-        <f>_xlfn.FLOOR.MATH(A12)</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C12">
-        <f>ROUND(MOD(A12,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>25.988000000032798</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D12">
-        <f>_xlfn.CEILING.MATH(C12/30)</f>
+      <c r="E12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>18.9116</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12">
-        <f>AVERAGE(E119:E135)</f>
+      <c r="I12">
+        <f>AVERAGE(F119:F135)</f>
         <v>22.849358823529411</v>
       </c>
-      <c r="I12">
-        <f>_xlfn.STDEV.P(E119:E135)</f>
+      <c r="J12">
+        <f>_xlfn.STDEV.P(F119:F135)</f>
         <v>0.73000263904343543</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1996.0956000000001</v>
       </c>
       <c r="B13">
-        <f>_xlfn.FLOOR.MATH(A13)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="C13">
-        <f>ROUND(MOD(A13,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>34.894000000037977</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D13">
-        <f>_xlfn.CEILING.MATH(C13/30)</f>
+      <c r="E13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>19.026</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13">
-        <f>AVERAGE(E136:E145)</f>
+      <c r="I13">
+        <f>AVERAGE(F136:F145)</f>
         <v>20.6447</v>
       </c>
-      <c r="I13">
-        <f>_xlfn.STDEV.P(E136:E145)</f>
+      <c r="J13">
+        <f>_xlfn.STDEV.P(F136:F145)</f>
         <v>0.62524585244526032</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1996.1038000000001</v>
       </c>
       <c r="B14">
-        <f>_xlfn.FLOOR.MATH(A14)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="C14">
-        <f>ROUND(MOD(A14,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>37.887000000033595</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D14">
-        <f>_xlfn.CEILING.MATH(C14/30)</f>
+      <c r="E14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>19.029</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1998.1342</v>
       </c>
       <c r="B15">
-        <f>_xlfn.FLOOR.MATH(A15)</f>
+        <f t="shared" si="0"/>
         <v>1998</v>
       </c>
       <c r="C15">
-        <f>ROUND(MOD(A15,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>48.982999999986987</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D15">
-        <f>_xlfn.CEILING.MATH(C15/30)</f>
+      <c r="E15">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>19.614999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1999.0904</v>
       </c>
       <c r="B16">
-        <f>_xlfn.FLOOR.MATH(A16)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="C16">
-        <f>ROUND(MOD(A16,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>32.996000000016465</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D16">
-        <f>_xlfn.CEILING.MATH(C16/30)</f>
+      <c r="E16">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>18.588999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1999.0986</v>
       </c>
       <c r="B17">
-        <f>_xlfn.FLOOR.MATH(A17)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="C17">
-        <f>ROUND(MOD(A17,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>35.989000000012084</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D17">
-        <f>_xlfn.CEILING.MATH(C17/30)</f>
+      <c r="E17">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>17.922000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1999.1315</v>
       </c>
       <c r="B18">
-        <f>_xlfn.FLOOR.MATH(A18)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="C18">
-        <f>ROUND(MOD(A18,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>47.997499999985394</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D18">
-        <f>_xlfn.CEILING.MATH(C18/30)</f>
+      <c r="E18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17.881</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2000.0847000000001</v>
       </c>
       <c r="B19">
-        <f>_xlfn.FLOOR.MATH(A19)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="C19">
-        <f>ROUND(MOD(A19,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>30.915500000040765</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D19">
-        <f>_xlfn.CEILING.MATH(C19/30)</f>
+      <c r="E19">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18.658999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2001.1369999999999</v>
       </c>
       <c r="B20">
-        <f>_xlfn.FLOOR.MATH(A20)</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C20">
-        <f>ROUND(MOD(A20,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>50.004999999979418</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D20">
-        <f>_xlfn.CEILING.MATH(C20/30)</f>
+      <c r="E20">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18.997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2001.1424999999999</v>
       </c>
       <c r="B21">
-        <f>_xlfn.FLOOR.MATH(A21)</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C21">
-        <f>ROUND(MOD(A21,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>52.012499999973443</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D21">
-        <f>_xlfn.CEILING.MATH(C21/30)</f>
+      <c r="E21">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18.919</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002.1588999999999</v>
       </c>
       <c r="B22">
-        <f>_xlfn.FLOOR.MATH(A22)</f>
+        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="C22">
-        <f>ROUND(MOD(A22,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>57.998499999964679</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="D22">
-        <f>_xlfn.CEILING.MATH(C22/30)</f>
+      <c r="E22">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>18.901</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2003.0849000000001</v>
       </c>
       <c r="B23">
-        <f>_xlfn.FLOOR.MATH(A23)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C23">
-        <f>ROUND(MOD(A23,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>30.988500000022441</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D23">
-        <f>_xlfn.CEILING.MATH(C23/30)</f>
+      <c r="E23">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>19.605</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2003.1396999999999</v>
       </c>
       <c r="B24">
-        <f>_xlfn.FLOOR.MATH(A24)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C24">
-        <f>ROUND(MOD(A24,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>50.990499999981012</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D24">
-        <f>_xlfn.CEILING.MATH(C24/30)</f>
+      <c r="E24">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>18.786999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2003.1478999999999</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FLOOR.MATH(A25)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C25">
-        <f>ROUND(MOD(A25,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>53.98349999997663</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="D25">
-        <f>_xlfn.CEILING.MATH(C25/30)</f>
+      <c r="E25">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>18.651</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2004.1491000000001</v>
       </c>
       <c r="B26">
-        <f>_xlfn.FLOOR.MATH(A26)</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C26">
-        <f>ROUND(MOD(A26,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>54.421500000032665</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="D26">
-        <f>_xlfn.CEILING.MATH(C26/30)</f>
+      <c r="E26">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>19.075800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2005.1243999999999</v>
       </c>
       <c r="B27">
-        <f>_xlfn.FLOOR.MATH(A27)</f>
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="C27">
-        <f>ROUND(MOD(A27,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>45.405999999971982</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D27">
-        <f>_xlfn.CEILING.MATH(C27/30)</f>
+      <c r="E27">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>18.044</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2007.1451999999999</v>
       </c>
       <c r="B28">
-        <f>_xlfn.FLOOR.MATH(A28)</f>
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="C28">
-        <f>ROUND(MOD(A28,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>52.997999999975036</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="D28">
-        <f>_xlfn.CEILING.MATH(C28/30)</f>
+      <c r="E28">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>18.54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2009.1436000000001</v>
       </c>
       <c r="B29">
-        <f>_xlfn.FLOOR.MATH(A29)</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C29">
-        <f>ROUND(MOD(A29,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>52.414000000038641</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D29">
-        <f>_xlfn.CEILING.MATH(C29/30)</f>
+      <c r="E29">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>18.433700000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1996.2049</v>
       </c>
       <c r="B30">
-        <f>_xlfn.FLOOR.MATH(A30)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="C30">
-        <f>ROUND(MOD(A30,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>74.788499999982605</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D30">
-        <f>_xlfn.CEILING.MATH(C30/30)</f>
+      <c r="E30">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>18.37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1997.2027</v>
       </c>
       <c r="B31">
-        <f>_xlfn.FLOOR.MATH(A31)</f>
+        <f t="shared" si="0"/>
         <v>1997</v>
       </c>
       <c r="C31">
-        <f>ROUND(MOD(A31,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>73.985500000018192</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="D31">
-        <f>_xlfn.CEILING.MATH(C31/30)</f>
+      <c r="E31">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>19.11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1998.2301</v>
       </c>
       <c r="B32">
-        <f>_xlfn.FLOOR.MATH(A32)</f>
+        <f t="shared" si="0"/>
         <v>1998</v>
       </c>
       <c r="C32">
-        <f>ROUND(MOD(A32,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>83.986499999997477</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="D32">
-        <f>_xlfn.CEILING.MATH(C32/30)</f>
+      <c r="E32">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>19.789000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1999.2164</v>
       </c>
       <c r="B33">
-        <f>_xlfn.FLOOR.MATH(A33)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="C33">
-        <f>ROUND(MOD(A33,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>78.986000000007834</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="D33">
-        <f>_xlfn.CEILING.MATH(C33/30)</f>
+      <c r="E33">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>17.997</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2000.1967</v>
       </c>
       <c r="B34">
-        <f>_xlfn.FLOOR.MATH(A34)</f>
+        <f t="shared" ref="B34:B65" si="4">_xlfn.FLOOR.MATH(A34)</f>
         <v>2000</v>
       </c>
       <c r="C34">
-        <f>ROUND(MOD(A34,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>71.795499999986987</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D65" si="5">ROUND(MOD(A34,1)*365, 0)</f>
         <v>72</v>
       </c>
-      <c r="D34">
-        <f>_xlfn.CEILING.MATH(C34/30)</f>
+      <c r="E34">
+        <f t="shared" ref="E34:E65" si="6">_xlfn.CEILING.MATH(D34/30)</f>
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>18.79</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2001.2247</v>
       </c>
       <c r="B35">
-        <f>_xlfn.FLOOR.MATH(A35)</f>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="C35">
-        <f>ROUND(MOD(A35,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>82.01549999999429</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="D35">
-        <f>_xlfn.CEILING.MATH(C35/30)</f>
+      <c r="E35">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>18.995000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2001.2384</v>
       </c>
       <c r="B36">
-        <f>_xlfn.FLOOR.MATH(A36)</f>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="C36">
-        <f>ROUND(MOD(A36,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>87.015999999983933</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="D36">
-        <f>_xlfn.CEILING.MATH(C36/30)</f>
+      <c r="E36">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>18.995000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2002.1753000000001</v>
       </c>
       <c r="B37">
-        <f>_xlfn.FLOOR.MATH(A37)</f>
+        <f t="shared" si="4"/>
         <v>2002</v>
       </c>
       <c r="C37">
-        <f>ROUND(MOD(A37,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>63.984500000038906</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D37">
-        <f>_xlfn.CEILING.MATH(C37/30)</f>
+      <c r="E37">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>18.87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2003.211</v>
       </c>
       <c r="B38">
-        <f>_xlfn.FLOOR.MATH(A38)</f>
+        <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="C38">
-        <f>ROUND(MOD(A38,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>77.015000000004648</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="D38">
-        <f>_xlfn.CEILING.MATH(C38/30)</f>
+      <c r="E38">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>18.792000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2005.1940999999999</v>
       </c>
       <c r="B39">
-        <f>_xlfn.FLOOR.MATH(A39)</f>
+        <f t="shared" si="4"/>
         <v>2005</v>
       </c>
       <c r="C39">
-        <f>ROUND(MOD(A39,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>70.846499999976231</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="D39">
-        <f>_xlfn.CEILING.MATH(C39/30)</f>
+      <c r="E39">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>18.268899999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2006.1776</v>
       </c>
       <c r="B40">
-        <f>_xlfn.FLOOR.MATH(A40)</f>
+        <f t="shared" si="4"/>
         <v>2006</v>
       </c>
       <c r="C40">
-        <f>ROUND(MOD(A40,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>64.823999999994157</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D40">
-        <f>_xlfn.CEILING.MATH(C40/30)</f>
+      <c r="E40">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>17.87</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2007.2215000000001</v>
       </c>
       <c r="B41">
-        <f>_xlfn.FLOOR.MATH(A41)</f>
+        <f t="shared" si="4"/>
         <v>2007</v>
       </c>
       <c r="C41">
-        <f>ROUND(MOD(A41,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>80.847500000038508</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="D41">
-        <f>_xlfn.CEILING.MATH(C41/30)</f>
+      <c r="E41">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>18.57</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2008.1721</v>
       </c>
       <c r="B42">
-        <f>_xlfn.FLOOR.MATH(A42)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="C42">
-        <f>ROUND(MOD(A42,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>62.816500000000133</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D42">
-        <f>_xlfn.CEILING.MATH(C42/30)</f>
+      <c r="E42">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>19.288699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2008.1831</v>
       </c>
       <c r="B43">
-        <f>_xlfn.FLOOR.MATH(A43)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="C43">
-        <f>ROUND(MOD(A43,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>66.831499999988182</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D43">
-        <f>_xlfn.CEILING.MATH(C43/30)</f>
+      <c r="E43">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>19.103000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2009.2324000000001</v>
       </c>
       <c r="B44">
-        <f>_xlfn.FLOOR.MATH(A44)</f>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="C44">
-        <f>ROUND(MOD(A44,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>84.826000000035719</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="D44">
-        <f>_xlfn.CEILING.MATH(C44/30)</f>
+      <c r="E44">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>18.8935</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1996.3142</v>
       </c>
       <c r="B45">
-        <f>_xlfn.FLOOR.MATH(A45)</f>
+        <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="C45">
-        <f>ROUND(MOD(A45,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>114.68300000001022</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="D45">
-        <f>_xlfn.CEILING.MATH(C45/30)</f>
+      <c r="E45">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>19.071999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1997.2849000000001</v>
       </c>
       <c r="B46">
-        <f>_xlfn.FLOOR.MATH(A46)</f>
+        <f t="shared" si="4"/>
         <v>1997</v>
       </c>
       <c r="C46">
-        <f>ROUND(MOD(A46,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>103.98850000003904</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="D46">
-        <f>_xlfn.CEILING.MATH(C46/30)</f>
+      <c r="E46">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>19.963000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1998.2657999999999</v>
       </c>
       <c r="B47">
-        <f>_xlfn.FLOOR.MATH(A47)</f>
+        <f t="shared" si="4"/>
         <v>1998</v>
       </c>
       <c r="C47">
-        <f>ROUND(MOD(A47,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>97.016999999963218</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="D47">
-        <f>_xlfn.CEILING.MATH(C47/30)</f>
+      <c r="E47">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>19.728999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1998.3151</v>
       </c>
       <c r="B48">
-        <f>_xlfn.FLOOR.MATH(A48)</f>
+        <f t="shared" si="4"/>
         <v>1998</v>
       </c>
       <c r="C48">
-        <f>ROUND(MOD(A48,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>115.01150000001076</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="D48">
-        <f>_xlfn.CEILING.MATH(C48/30)</f>
+      <c r="E48">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>19.605</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2000.2568000000001</v>
       </c>
       <c r="B49">
-        <f>_xlfn.FLOOR.MATH(A49)</f>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="C49">
-        <f>ROUND(MOD(A49,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>93.732000000040898</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="D49">
-        <f>_xlfn.CEILING.MATH(C49/30)</f>
+      <c r="E49">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>18.821999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2001.3096</v>
       </c>
       <c r="B50">
-        <f>_xlfn.FLOOR.MATH(A50)</f>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="C50">
-        <f>ROUND(MOD(A50,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>113.00400000001673</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="D50">
-        <f>_xlfn.CEILING.MATH(C50/30)</f>
+      <c r="E50">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>19.102</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2002.2877000000001</v>
       </c>
       <c r="B51">
-        <f>_xlfn.FLOOR.MATH(A51)</f>
+        <f t="shared" si="4"/>
         <v>2002</v>
       </c>
       <c r="C51">
-        <f>ROUND(MOD(A51,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>105.01050000003147</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="D51">
-        <f>_xlfn.CEILING.MATH(C51/30)</f>
+      <c r="E51">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>18.87</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2003.2657999999999</v>
       </c>
       <c r="B52">
-        <f>_xlfn.FLOOR.MATH(A52)</f>
+        <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="C52">
-        <f>ROUND(MOD(A52,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>97.016999999963218</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="D52">
-        <f>_xlfn.CEILING.MATH(C52/30)</f>
+      <c r="E52">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>19.518000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2004.3047999999999</v>
       </c>
       <c r="B53">
-        <f>_xlfn.FLOOR.MATH(A53)</f>
+        <f t="shared" si="4"/>
         <v>2004</v>
       </c>
       <c r="C53">
-        <f>ROUND(MOD(A53,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>111.25199999995857</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="D53">
-        <f>_xlfn.CEILING.MATH(C53/30)</f>
+      <c r="E53">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>19.459099999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2004.3185000000001</v>
       </c>
       <c r="B54">
-        <f>_xlfn.FLOOR.MATH(A54)</f>
+        <f t="shared" si="4"/>
         <v>2004</v>
       </c>
       <c r="C54">
-        <f>ROUND(MOD(A54,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>116.2525000000312</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="D54">
-        <f>_xlfn.CEILING.MATH(C54/30)</f>
+      <c r="E54">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>19.484400000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2005.2855999999999</v>
       </c>
       <c r="B55">
-        <f>_xlfn.FLOOR.MATH(A55)</f>
+        <f t="shared" si="4"/>
         <v>2005</v>
       </c>
       <c r="C55">
-        <f>ROUND(MOD(A55,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>104.2439999999749</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="D55">
-        <f>_xlfn.CEILING.MATH(C55/30)</f>
+      <c r="E55">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>19.14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2006.2629999999999</v>
       </c>
       <c r="B56">
-        <f>_xlfn.FLOOR.MATH(A56)</f>
+        <f t="shared" si="4"/>
         <v>2006</v>
       </c>
       <c r="C56">
-        <f>ROUND(MOD(A56,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>95.994999999970787</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="D56">
-        <f>_xlfn.CEILING.MATH(C56/30)</f>
+      <c r="E56">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>17.818000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2006.3240000000001</v>
       </c>
       <c r="B57">
-        <f>_xlfn.FLOOR.MATH(A57)</f>
+        <f t="shared" si="4"/>
         <v>2006</v>
       </c>
       <c r="C57">
-        <f>ROUND(MOD(A57,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>118.26000000002523</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="D57">
-        <f>_xlfn.CEILING.MATH(C57/30)</f>
+      <c r="E57">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>19.34</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2007.2692</v>
       </c>
       <c r="B58">
-        <f>_xlfn.FLOOR.MATH(A58)</f>
+        <f t="shared" si="4"/>
         <v>2007</v>
       </c>
       <c r="C58">
-        <f>ROUND(MOD(A58,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>98.257999999983667</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="D58">
-        <f>_xlfn.CEILING.MATH(C58/30)</f>
+      <c r="E58">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>18.63</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2008.2883999999999</v>
       </c>
       <c r="B59">
-        <f>_xlfn.FLOOR.MATH(A59)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="C59">
-        <f>ROUND(MOD(A59,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>105.26599999996733</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="D59">
-        <f>_xlfn.CEILING.MATH(C59/30)</f>
+      <c r="E59">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>19.212</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2008.3158000000001</v>
       </c>
       <c r="B60">
-        <f>_xlfn.FLOOR.MATH(A60)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="C60">
-        <f>ROUND(MOD(A60,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>115.26700000002961</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="D60">
-        <f>_xlfn.CEILING.MATH(C60/30)</f>
+      <c r="E60">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>19.709</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2009.2692</v>
       </c>
       <c r="B61">
-        <f>_xlfn.FLOOR.MATH(A61)</f>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="C61">
-        <f>ROUND(MOD(A61,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>98.257999999983667</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="D61">
-        <f>_xlfn.CEILING.MATH(C61/30)</f>
+      <c r="E61">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>18.669699999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1996.3715999999999</v>
       </c>
       <c r="B62">
-        <f>_xlfn.FLOOR.MATH(A62)</f>
+        <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="C62">
-        <f>ROUND(MOD(A62,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>135.63399999997955</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="D62">
-        <f>_xlfn.CEILING.MATH(C62/30)</f>
+      <c r="E62">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>20.058</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1996.377</v>
       </c>
       <c r="B63">
-        <f>_xlfn.FLOOR.MATH(A63)</f>
+        <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="C63">
-        <f>ROUND(MOD(A63,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>137.60499999998274</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="D63">
-        <f>_xlfn.CEILING.MATH(C63/30)</f>
+      <c r="E63">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>20.067</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1996.3906999999999</v>
       </c>
       <c r="B64">
-        <f>_xlfn.FLOOR.MATH(A64)</f>
+        <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="C64">
-        <f>ROUND(MOD(A64,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>142.60549999997238</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
-      <c r="D64">
-        <f>_xlfn.CEILING.MATH(C64/30)</f>
+      <c r="E64">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>19.843</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1997.3670999999999</v>
       </c>
       <c r="B65">
-        <f>_xlfn.FLOOR.MATH(A65)</f>
+        <f t="shared" si="4"/>
         <v>1997</v>
       </c>
       <c r="C65">
-        <f>ROUND(MOD(A65,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>133.9914999999769</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="D65">
-        <f>_xlfn.CEILING.MATH(C65/30)</f>
+      <c r="E65">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>20.675999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1998.3835999999999</v>
       </c>
       <c r="B66">
-        <f>_xlfn.FLOOR.MATH(A66)</f>
+        <f t="shared" ref="B66:B97" si="7">_xlfn.FLOOR.MATH(A66)</f>
         <v>1998</v>
       </c>
       <c r="C66">
-        <f>ROUND(MOD(A66,1)*365, 0)</f>
+        <f t="shared" si="3"/>
+        <v>140.01399999995897</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D97" si="8">ROUND(MOD(A66,1)*365, 0)</f>
         <v>140</v>
       </c>
-      <c r="D66">
-        <f>_xlfn.CEILING.MATH(C66/30)</f>
+      <c r="E66">
+        <f t="shared" ref="E66:E97" si="9">_xlfn.CEILING.MATH(D66/30)</f>
         <v>5</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>19.783999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2001.3752999999999</v>
       </c>
       <c r="B67">
-        <f>_xlfn.FLOOR.MATH(A67)</f>
+        <f t="shared" si="7"/>
         <v>2001</v>
       </c>
       <c r="C67">
-        <f>ROUND(MOD(A67,1)*365, 0)</f>
+        <f t="shared" ref="C67:C130" si="10">MOD(A67, 1)*365</f>
+        <v>136.98449999997251</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="D67">
-        <f>_xlfn.CEILING.MATH(C67/30)</f>
+      <c r="E67">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>19.744</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2002.3725999999999</v>
       </c>
       <c r="B68">
-        <f>_xlfn.FLOOR.MATH(A68)</f>
+        <f t="shared" si="7"/>
         <v>2002</v>
       </c>
       <c r="C68">
-        <f>ROUND(MOD(A68,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>135.99899999997092</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="D68">
-        <f>_xlfn.CEILING.MATH(C68/30)</f>
+      <c r="E68">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>19.032</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2003.3698999999999</v>
       </c>
       <c r="B69">
-        <f>_xlfn.FLOOR.MATH(A69)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="C69">
-        <f>ROUND(MOD(A69,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>135.01349999996933</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="D69">
-        <f>_xlfn.CEILING.MATH(C69/30)</f>
+      <c r="E69">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>19.251999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2006.3945000000001</v>
       </c>
       <c r="B70">
-        <f>_xlfn.FLOOR.MATH(A70)</f>
+        <f t="shared" si="7"/>
         <v>2006</v>
       </c>
       <c r="C70">
-        <f>ROUND(MOD(A70,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>143.99250000003917</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="D70">
-        <f>_xlfn.CEILING.MATH(C70/30)</f>
+      <c r="E70">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>20.120999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2007.3752999999999</v>
       </c>
       <c r="B71">
-        <f>_xlfn.FLOOR.MATH(A71)</f>
+        <f t="shared" si="7"/>
         <v>2007</v>
       </c>
       <c r="C71">
-        <f>ROUND(MOD(A71,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>136.98449999997251</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="D71">
-        <f>_xlfn.CEILING.MATH(C71/30)</f>
+      <c r="E71">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>19.690999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2009.3853999999999</v>
       </c>
       <c r="B72">
-        <f>_xlfn.FLOOR.MATH(A72)</f>
+        <f t="shared" si="7"/>
         <v>2009</v>
       </c>
       <c r="C72">
-        <f>ROUND(MOD(A72,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>140.67099999996003</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="D72">
-        <f>_xlfn.CEILING.MATH(C72/30)</f>
+      <c r="E72">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>19.297000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1996.4481000000001</v>
       </c>
       <c r="B73">
-        <f>_xlfn.FLOOR.MATH(A73)</f>
+        <f t="shared" si="7"/>
         <v>1996</v>
       </c>
       <c r="C73">
-        <f>ROUND(MOD(A73,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>163.5565000000247</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="D73">
-        <f>_xlfn.CEILING.MATH(C73/30)</f>
+      <c r="E73">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>20.46</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1997.4438</v>
       </c>
       <c r="B74">
-        <f>_xlfn.FLOOR.MATH(A74)</f>
+        <f t="shared" si="7"/>
         <v>1997</v>
       </c>
       <c r="C74">
-        <f>ROUND(MOD(A74,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>161.98700000000372</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="D74">
-        <f>_xlfn.CEILING.MATH(C74/30)</f>
+      <c r="E74">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>22.318999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1997.4493</v>
       </c>
       <c r="B75">
-        <f>_xlfn.FLOOR.MATH(A75)</f>
+        <f t="shared" si="7"/>
         <v>1997</v>
       </c>
       <c r="C75">
-        <f>ROUND(MOD(A75,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>163.99449999999774</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="D75">
-        <f>_xlfn.CEILING.MATH(C75/30)</f>
+      <c r="E75">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>22.318000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1998.4821999999999</v>
       </c>
       <c r="B76">
-        <f>_xlfn.FLOOR.MATH(A76)</f>
+        <f t="shared" si="7"/>
         <v>1998</v>
       </c>
       <c r="C76">
-        <f>ROUND(MOD(A76,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>176.00299999997105</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="D76">
-        <f>_xlfn.CEILING.MATH(C76/30)</f>
+      <c r="E76">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>21.003</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2001.4903999999999</v>
       </c>
       <c r="B77">
-        <f>_xlfn.FLOOR.MATH(A77)</f>
+        <f t="shared" si="7"/>
         <v>2001</v>
       </c>
       <c r="C77">
-        <f>ROUND(MOD(A77,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>178.99599999996667</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="D77">
-        <f>_xlfn.CEILING.MATH(C77/30)</f>
+      <c r="E77">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>21.335000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2003.4521</v>
       </c>
       <c r="B78">
-        <f>_xlfn.FLOOR.MATH(A78)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="C78">
-        <f>ROUND(MOD(A78,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>165.01649999999017</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="D78">
-        <f>_xlfn.CEILING.MATH(C78/30)</f>
+      <c r="E78">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>21.077000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2006.4329</v>
       </c>
       <c r="B79">
-        <f>_xlfn.FLOOR.MATH(A79)</f>
+        <f t="shared" si="7"/>
         <v>2006</v>
       </c>
       <c r="C79">
-        <f>ROUND(MOD(A79,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>158.00850000000651</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
-      <c r="D79">
-        <f>_xlfn.CEILING.MATH(C79/30)</f>
+      <c r="E79">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>21.643000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2006.4358</v>
       </c>
       <c r="B80">
-        <f>_xlfn.FLOOR.MATH(A80)</f>
+        <f t="shared" si="7"/>
         <v>2006</v>
       </c>
       <c r="C80">
-        <f>ROUND(MOD(A80,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>159.06699999998978</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="8"/>
         <v>159</v>
       </c>
-      <c r="D80">
-        <f>_xlfn.CEILING.MATH(C80/30)</f>
+      <c r="E80">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>21.41</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2007.4137000000001</v>
       </c>
       <c r="B81">
-        <f>_xlfn.FLOOR.MATH(A81)</f>
+        <f t="shared" si="7"/>
         <v>2007</v>
       </c>
       <c r="C81">
-        <f>ROUND(MOD(A81,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>151.00050000002284</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="D81">
-        <f>_xlfn.CEILING.MATH(C81/30)</f>
+      <c r="E81">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>19.966000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1996.5219</v>
       </c>
       <c r="B82">
-        <f>_xlfn.FLOOR.MATH(A82)</f>
+        <f t="shared" si="7"/>
         <v>1996</v>
       </c>
       <c r="C82">
-        <f>ROUND(MOD(A82,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>190.49349999998526</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="D82">
-        <f>_xlfn.CEILING.MATH(C82/30)</f>
+      <c r="E82">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>21.033999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1997.5068000000001</v>
       </c>
       <c r="B83">
-        <f>_xlfn.FLOOR.MATH(A83)</f>
+        <f t="shared" si="7"/>
         <v>1997</v>
       </c>
       <c r="C83">
-        <f>ROUND(MOD(A83,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>184.9820000000409</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="D83">
-        <f>_xlfn.CEILING.MATH(C83/30)</f>
+      <c r="E83">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>22.515000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1998.5014000000001</v>
       </c>
       <c r="B84">
-        <f>_xlfn.FLOOR.MATH(A84)</f>
+        <f t="shared" si="7"/>
         <v>1998</v>
       </c>
       <c r="C84">
-        <f>ROUND(MOD(A84,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>183.01100000003771</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
-      <c r="D84">
-        <f>_xlfn.CEILING.MATH(C84/30)</f>
+      <c r="E84">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>21.315000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2000.5382999999999</v>
       </c>
       <c r="B85">
-        <f>_xlfn.FLOOR.MATH(A85)</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="C85">
-        <f>ROUND(MOD(A85,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>196.4794999999765</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
-      <c r="D85">
-        <f>_xlfn.CEILING.MATH(C85/30)</f>
+      <c r="E85">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>21.602</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2002.4958999999999</v>
       </c>
       <c r="B86">
-        <f>_xlfn.FLOOR.MATH(A86)</f>
+        <f t="shared" si="7"/>
         <v>2002</v>
       </c>
       <c r="C86">
-        <f>ROUND(MOD(A86,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>181.0034999999607</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="8"/>
         <v>181</v>
       </c>
-      <c r="D86">
-        <f>_xlfn.CEILING.MATH(C86/30)</f>
+      <c r="E86">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>20.521999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2003.5425</v>
       </c>
       <c r="B87">
-        <f>_xlfn.FLOOR.MATH(A87)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="C87">
-        <f>ROUND(MOD(A87,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>198.01250000000664</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="D87">
-        <f>_xlfn.CEILING.MATH(C87/30)</f>
+      <c r="E87">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>22.9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2005.5342000000001</v>
       </c>
       <c r="B88">
-        <f>_xlfn.FLOOR.MATH(A88)</f>
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
       <c r="C88">
-        <f>ROUND(MOD(A88,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>194.98300000002018</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
-      <c r="D88">
-        <f>_xlfn.CEILING.MATH(C88/30)</f>
+      <c r="E88">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>22.055</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2005.5740000000001</v>
       </c>
       <c r="B89">
-        <f>_xlfn.FLOOR.MATH(A89)</f>
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
       <c r="C89">
-        <f>ROUND(MOD(A89,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>209.51000000002523</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="D89">
-        <f>_xlfn.CEILING.MATH(C89/30)</f>
+      <c r="E89">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>22.85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2006.5342000000001</v>
       </c>
       <c r="B90">
-        <f>_xlfn.FLOOR.MATH(A90)</f>
+        <f t="shared" si="7"/>
         <v>2006</v>
       </c>
       <c r="C90">
-        <f>ROUND(MOD(A90,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>194.98300000002018</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
-      <c r="D90">
-        <f>_xlfn.CEILING.MATH(C90/30)</f>
+      <c r="E90">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>22.14</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2007.5096000000001</v>
       </c>
       <c r="B91">
-        <f>_xlfn.FLOOR.MATH(A91)</f>
+        <f t="shared" si="7"/>
         <v>2007</v>
       </c>
       <c r="C91">
-        <f>ROUND(MOD(A91,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>186.00400000003333</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
-      <c r="D91">
-        <f>_xlfn.CEILING.MATH(C91/30)</f>
+      <c r="E91">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>20.7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2000.653</v>
       </c>
       <c r="B92">
-        <f>_xlfn.FLOOR.MATH(A92)</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="C92">
-        <f>ROUND(MOD(A92,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>238.3450000000073</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
-      <c r="D92">
-        <f>_xlfn.CEILING.MATH(C92/30)</f>
+      <c r="E92">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>22.93</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2005.6546000000001</v>
       </c>
       <c r="B93">
-        <f>_xlfn.FLOOR.MATH(A93)</f>
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
       <c r="C93">
-        <f>ROUND(MOD(A93,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>238.92900000002669</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
-      <c r="D93">
-        <f>_xlfn.CEILING.MATH(C93/30)</f>
+      <c r="E93">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>23.687000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2006.6079999999999</v>
       </c>
       <c r="B94">
-        <f>_xlfn.FLOOR.MATH(A94)</f>
+        <f t="shared" si="7"/>
         <v>2006</v>
       </c>
       <c r="C94">
-        <f>ROUND(MOD(A94,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>221.91999999998075</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
-      <c r="D94">
-        <f>_xlfn.CEILING.MATH(C94/30)</f>
+      <c r="E94">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>23.05</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2007.6438000000001</v>
       </c>
       <c r="B95">
-        <f>_xlfn.FLOOR.MATH(A95)</f>
+        <f t="shared" si="7"/>
         <v>2007</v>
       </c>
       <c r="C95">
-        <f>ROUND(MOD(A95,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>234.98700000002032</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
-      <c r="D95">
-        <f>_xlfn.CEILING.MATH(C95/30)</f>
+      <c r="E95">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>22.492000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2008.6436000000001</v>
       </c>
       <c r="B96">
-        <f>_xlfn.FLOOR.MATH(A96)</f>
+        <f t="shared" si="7"/>
         <v>2008</v>
       </c>
       <c r="C96">
-        <f>ROUND(MOD(A96,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>234.91400000003864</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
-      <c r="D96">
-        <f>_xlfn.CEILING.MATH(C96/30)</f>
+      <c r="E96">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>22.663499999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1996.7403999999999</v>
       </c>
       <c r="B97">
-        <f>_xlfn.FLOOR.MATH(A97)</f>
+        <f t="shared" si="7"/>
         <v>1996</v>
       </c>
       <c r="C97">
-        <f>ROUND(MOD(A97,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>270.24599999996667</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="D97">
-        <f>_xlfn.CEILING.MATH(C97/30)</f>
+      <c r="E97">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>23.393999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2000.7130999999999</v>
       </c>
       <c r="B98">
-        <f>_xlfn.FLOOR.MATH(A98)</f>
+        <f t="shared" ref="B98:B129" si="11">_xlfn.FLOOR.MATH(A98)</f>
         <v>2000</v>
       </c>
       <c r="C98">
-        <f>ROUND(MOD(A98,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>260.28149999997822</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ref="D98:D129" si="12">ROUND(MOD(A98,1)*365, 0)</f>
         <v>260</v>
       </c>
-      <c r="D98">
-        <f>_xlfn.CEILING.MATH(C98/30)</f>
+      <c r="E98">
+        <f t="shared" ref="E98:E129" si="13">_xlfn.CEILING.MATH(D98/30)</f>
         <v>9</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>23.044</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2001.6658</v>
       </c>
       <c r="B99">
-        <f>_xlfn.FLOOR.MATH(A99)</f>
+        <f t="shared" si="11"/>
         <v>2001</v>
       </c>
       <c r="C99">
-        <f>ROUND(MOD(A99,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>243.01699999999641</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
-      <c r="D99">
-        <f>_xlfn.CEILING.MATH(C99/30)</f>
+      <c r="E99">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>24.146000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2001.7397000000001</v>
       </c>
       <c r="B100">
-        <f>_xlfn.FLOOR.MATH(A100)</f>
+        <f t="shared" si="11"/>
         <v>2001</v>
       </c>
       <c r="C100">
-        <f>ROUND(MOD(A100,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>269.99050000003081</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="D100">
-        <f>_xlfn.CEILING.MATH(C100/30)</f>
+      <c r="E100">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>24.603999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2002.7040999999999</v>
       </c>
       <c r="B101">
-        <f>_xlfn.FLOOR.MATH(A101)</f>
+        <f t="shared" si="11"/>
         <v>2002</v>
       </c>
       <c r="C101">
-        <f>ROUND(MOD(A101,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>256.99649999997291</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
-      <c r="D101">
-        <f>_xlfn.CEILING.MATH(C101/30)</f>
+      <c r="E101">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>22.599</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2003.6985999999999</v>
       </c>
       <c r="B102">
-        <f>_xlfn.FLOOR.MATH(A102)</f>
+        <f t="shared" si="11"/>
         <v>2003</v>
       </c>
       <c r="C102">
-        <f>ROUND(MOD(A102,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>254.98899999997889</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="12"/>
         <v>255</v>
       </c>
-      <c r="D102">
-        <f>_xlfn.CEILING.MATH(C102/30)</f>
+      <c r="E102">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>23.795999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2005.6712</v>
       </c>
       <c r="B103">
-        <f>_xlfn.FLOOR.MATH(A103)</f>
+        <f t="shared" si="11"/>
         <v>2005</v>
       </c>
       <c r="C103">
-        <f>ROUND(MOD(A103,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>244.9879999999996</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="12"/>
         <v>245</v>
       </c>
-      <c r="D103">
-        <f>_xlfn.CEILING.MATH(C103/30)</f>
+      <c r="E103">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>23.771000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2006.6658</v>
       </c>
       <c r="B104">
-        <f>_xlfn.FLOOR.MATH(A104)</f>
+        <f t="shared" si="11"/>
         <v>2006</v>
       </c>
       <c r="C104">
-        <f>ROUND(MOD(A104,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>243.01699999999641</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
-      <c r="D104">
-        <f>_xlfn.CEILING.MATH(C104/30)</f>
+      <c r="E104">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>23.774999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2006.7013999999999</v>
       </c>
       <c r="B105">
-        <f>_xlfn.FLOOR.MATH(A105)</f>
+        <f t="shared" si="11"/>
         <v>2006</v>
       </c>
       <c r="C105">
-        <f>ROUND(MOD(A105,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>256.01099999997132</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
-      <c r="D105">
-        <f>_xlfn.CEILING.MATH(C105/30)</f>
+      <c r="E105">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>24.24</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1995.7507000000001</v>
       </c>
       <c r="B106">
-        <f>_xlfn.FLOOR.MATH(A106)</f>
+        <f t="shared" si="11"/>
         <v>1995</v>
       </c>
       <c r="C106">
-        <f>ROUND(MOD(A106,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>274.00550000001886</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="D106">
-        <f>_xlfn.CEILING.MATH(C106/30)</f>
+      <c r="E106">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>23.023</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1995.7562</v>
       </c>
       <c r="B107">
-        <f>_xlfn.FLOOR.MATH(A107)</f>
+        <f t="shared" si="11"/>
         <v>1995</v>
       </c>
       <c r="C107">
-        <f>ROUND(MOD(A107,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>276.01300000001288</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="D107">
-        <f>_xlfn.CEILING.MATH(C107/30)</f>
+      <c r="E107">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>23.318999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1995.7644</v>
       </c>
       <c r="B108">
-        <f>_xlfn.FLOOR.MATH(A108)</f>
+        <f t="shared" si="11"/>
         <v>1995</v>
       </c>
       <c r="C108">
-        <f>ROUND(MOD(A108,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>279.0060000000085</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="D108">
-        <f>_xlfn.CEILING.MATH(C108/30)</f>
+      <c r="E108">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>23.280999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1998.7425000000001</v>
       </c>
       <c r="B109">
-        <f>_xlfn.FLOOR.MATH(A109)</f>
+        <f t="shared" si="11"/>
         <v>1998</v>
       </c>
       <c r="C109">
-        <f>ROUND(MOD(A109,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>271.01250000002324</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="D109">
-        <f>_xlfn.CEILING.MATH(C109/30)</f>
+      <c r="E109">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>23.437000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1998.7671</v>
       </c>
       <c r="B110">
-        <f>_xlfn.FLOOR.MATH(A110)</f>
+        <f t="shared" si="11"/>
         <v>1998</v>
       </c>
       <c r="C110">
-        <f>ROUND(MOD(A110,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>279.99150000001009</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="D110">
-        <f>_xlfn.CEILING.MATH(C110/30)</f>
+      <c r="E110">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>23.616</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1999.8109999999999</v>
       </c>
       <c r="B111">
-        <f>_xlfn.FLOOR.MATH(A111)</f>
+        <f t="shared" si="11"/>
         <v>1999</v>
       </c>
       <c r="C111">
-        <f>ROUND(MOD(A111,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>296.01499999997145</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="D111">
-        <f>_xlfn.CEILING.MATH(C111/30)</f>
+      <c r="E111">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>23.414999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2001.7753</v>
       </c>
       <c r="B112">
-        <f>_xlfn.FLOOR.MATH(A112)</f>
+        <f t="shared" si="11"/>
         <v>2001</v>
       </c>
       <c r="C112">
-        <f>ROUND(MOD(A112,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>282.98450000000571</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="D112">
-        <f>_xlfn.CEILING.MATH(C112/30)</f>
+      <c r="E112">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>24.126000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2002.7945</v>
       </c>
       <c r="B113">
-        <f>_xlfn.FLOOR.MATH(A113)</f>
+        <f t="shared" si="11"/>
         <v>2002</v>
       </c>
       <c r="C113">
-        <f>ROUND(MOD(A113,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>289.99249999998938</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="D113">
-        <f>_xlfn.CEILING.MATH(C113/30)</f>
+      <c r="E113">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>23.513000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2005.7434000000001</v>
       </c>
       <c r="B114">
-        <f>_xlfn.FLOOR.MATH(A114)</f>
+        <f t="shared" si="11"/>
         <v>2005</v>
       </c>
       <c r="C114">
-        <f>ROUND(MOD(A114,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>271.34100000002377</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="D114">
-        <f>_xlfn.CEILING.MATH(C114/30)</f>
+      <c r="E114">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>23.86</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2006.7582</v>
       </c>
       <c r="B115">
-        <f>_xlfn.FLOOR.MATH(A115)</f>
+        <f t="shared" si="11"/>
         <v>2006</v>
       </c>
       <c r="C115">
-        <f>ROUND(MOD(A115,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>276.74299999999562</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="D115">
-        <f>_xlfn.CEILING.MATH(C115/30)</f>
+      <c r="E115">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>24.55</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2007.7719</v>
       </c>
       <c r="B116">
-        <f>_xlfn.FLOOR.MATH(A116)</f>
+        <f t="shared" si="11"/>
         <v>2007</v>
       </c>
       <c r="C116">
-        <f>ROUND(MOD(A116,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>281.74349999998526</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="D116">
-        <f>_xlfn.CEILING.MATH(C116/30)</f>
+      <c r="E116">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>23.83</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2007.7836</v>
       </c>
       <c r="B117">
-        <f>_xlfn.FLOOR.MATH(A117)</f>
+        <f t="shared" si="11"/>
         <v>2007</v>
       </c>
       <c r="C117">
-        <f>ROUND(MOD(A117,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>286.01399999999217</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="D117">
-        <f>_xlfn.CEILING.MATH(C117/30)</f>
+      <c r="E117">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>23.632999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2007.8163999999999</v>
       </c>
       <c r="B118">
-        <f>_xlfn.FLOOR.MATH(A118)</f>
+        <f t="shared" si="11"/>
         <v>2007</v>
       </c>
       <c r="C118">
-        <f>ROUND(MOD(A118,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>297.98599999997464</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="D118">
-        <f>_xlfn.CEILING.MATH(C118/30)</f>
+      <c r="E118">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>23.207000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1995.9014</v>
       </c>
       <c r="B119">
-        <f>_xlfn.FLOOR.MATH(A119)</f>
+        <f t="shared" si="11"/>
         <v>1995</v>
       </c>
       <c r="C119">
-        <f>ROUND(MOD(A119,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>329.01099999998792</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="12"/>
         <v>329</v>
       </c>
-      <c r="D119">
-        <f>_xlfn.CEILING.MATH(C119/30)</f>
+      <c r="E119">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>22.277999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1996.8306</v>
       </c>
       <c r="B120">
-        <f>_xlfn.FLOOR.MATH(A120)</f>
+        <f t="shared" si="11"/>
         <v>1996</v>
       </c>
       <c r="C120">
-        <f>ROUND(MOD(A120,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>303.16900000000146</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
-      <c r="D120">
-        <f>_xlfn.CEILING.MATH(C120/30)</f>
+      <c r="E120">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>22.841999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1997.8466000000001</v>
       </c>
       <c r="B121">
-        <f>_xlfn.FLOOR.MATH(A121)</f>
+        <f t="shared" si="11"/>
         <v>1997</v>
       </c>
       <c r="C121">
-        <f>ROUND(MOD(A121,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>309.00900000002935</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="12"/>
         <v>309</v>
       </c>
-      <c r="D121">
-        <f>_xlfn.CEILING.MATH(C121/30)</f>
+      <c r="E121">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>23.367999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1998.8822</v>
       </c>
       <c r="B122">
-        <f>_xlfn.FLOOR.MATH(A122)</f>
+        <f t="shared" si="11"/>
         <v>1998</v>
       </c>
       <c r="C122">
-        <f>ROUND(MOD(A122,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>322.00300000000425</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="12"/>
         <v>322</v>
       </c>
-      <c r="D122">
-        <f>_xlfn.CEILING.MATH(C122/30)</f>
+      <c r="E122">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>22.004999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1999.8411000000001</v>
       </c>
       <c r="B123">
-        <f>_xlfn.FLOOR.MATH(A123)</f>
+        <f t="shared" si="11"/>
         <v>1999</v>
       </c>
       <c r="C123">
-        <f>ROUND(MOD(A123,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>307.00150000003532</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="12"/>
         <v>307</v>
       </c>
-      <c r="D123">
-        <f>_xlfn.CEILING.MATH(C123/30)</f>
+      <c r="E123">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>22.635000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2000.8851999999999</v>
       </c>
       <c r="B124">
-        <f>_xlfn.FLOOR.MATH(A124)</f>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="C124">
-        <f>ROUND(MOD(A124,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>323.09799999997836</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="12"/>
         <v>323</v>
       </c>
-      <c r="D124">
-        <f>_xlfn.CEILING.MATH(C124/30)</f>
+      <c r="E124">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>21.094000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2002.8986</v>
       </c>
       <c r="B125">
-        <f>_xlfn.FLOOR.MATH(A125)</f>
+        <f t="shared" si="11"/>
         <v>2002</v>
       </c>
       <c r="C125">
-        <f>ROUND(MOD(A125,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>327.98899999999549</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="12"/>
         <v>328</v>
       </c>
-      <c r="D125">
-        <f>_xlfn.CEILING.MATH(C125/30)</f>
+      <c r="E125">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>22.111000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2003.8300999999999</v>
       </c>
       <c r="B126">
-        <f>_xlfn.FLOOR.MATH(A126)</f>
+        <f t="shared" si="11"/>
         <v>2003</v>
       </c>
       <c r="C126">
-        <f>ROUND(MOD(A126,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>302.98649999996428</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
-      <c r="D126">
-        <f>_xlfn.CEILING.MATH(C126/30)</f>
+      <c r="E126">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>23.401</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2003.8438000000001</v>
       </c>
       <c r="B127">
-        <f>_xlfn.FLOOR.MATH(A127)</f>
+        <f t="shared" si="11"/>
         <v>2003</v>
       </c>
       <c r="C127">
-        <f>ROUND(MOD(A127,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>307.98700000003691</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="12"/>
         <v>308</v>
       </c>
-      <c r="D127">
-        <f>_xlfn.CEILING.MATH(C127/30)</f>
+      <c r="E127">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>22.753</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2004.8443</v>
       </c>
       <c r="B128">
-        <f>_xlfn.FLOOR.MATH(A128)</f>
+        <f t="shared" si="11"/>
         <v>2004</v>
       </c>
       <c r="C128">
-        <f>ROUND(MOD(A128,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>308.1694999999911</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="12"/>
         <v>308</v>
       </c>
-      <c r="D128">
-        <f>_xlfn.CEILING.MATH(C128/30)</f>
+      <c r="E128">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>23.65</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2005.8267000000001</v>
       </c>
       <c r="B129">
-        <f>_xlfn.FLOOR.MATH(A129)</f>
+        <f t="shared" si="11"/>
         <v>2005</v>
       </c>
       <c r="C129">
-        <f>ROUND(MOD(A129,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>301.74550000002682</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="12"/>
         <v>302</v>
       </c>
-      <c r="D129">
-        <f>_xlfn.CEILING.MATH(C129/30)</f>
+      <c r="E129">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>23.687000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2005.8936000000001</v>
       </c>
       <c r="B130">
-        <f>_xlfn.FLOOR.MATH(A130)</f>
+        <f t="shared" ref="B130:B161" si="14">_xlfn.FLOOR.MATH(A130)</f>
         <v>2005</v>
       </c>
       <c r="C130">
-        <f>ROUND(MOD(A130,1)*365, 0)</f>
+        <f t="shared" si="10"/>
+        <v>326.16400000003864</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ref="D130:D145" si="15">ROUND(MOD(A130,1)*365, 0)</f>
         <v>326</v>
       </c>
-      <c r="D130">
-        <f>_xlfn.CEILING.MATH(C130/30)</f>
+      <c r="E130">
+        <f t="shared" ref="E130:E161" si="16">_xlfn.CEILING.MATH(D130/30)</f>
         <v>11</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>22.036000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2006.8634999999999</v>
       </c>
       <c r="B131">
-        <f>_xlfn.FLOOR.MATH(A131)</f>
+        <f t="shared" si="14"/>
         <v>2006</v>
       </c>
       <c r="C131">
-        <f>ROUND(MOD(A131,1)*365, 0)</f>
+        <f t="shared" ref="C131:C145" si="17">MOD(A131, 1)*365</f>
+        <v>315.17749999997477</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="15"/>
         <v>315</v>
       </c>
-      <c r="D131">
-        <f>_xlfn.CEILING.MATH(C131/30)</f>
+      <c r="E131">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>23.050699999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2007.8295000000001</v>
       </c>
       <c r="B132">
-        <f>_xlfn.FLOOR.MATH(A132)</f>
+        <f t="shared" si="14"/>
         <v>2007</v>
       </c>
       <c r="C132">
-        <f>ROUND(MOD(A132,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>302.76750000001925</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="15"/>
         <v>303</v>
       </c>
-      <c r="D132">
-        <f>_xlfn.CEILING.MATH(C132/30)</f>
+      <c r="E132">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>22.9316</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2009.8240000000001</v>
       </c>
       <c r="B133">
-        <f>_xlfn.FLOOR.MATH(A133)</f>
+        <f t="shared" si="14"/>
         <v>2009</v>
       </c>
       <c r="C133">
-        <f>ROUND(MOD(A133,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>300.76000000002523</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="15"/>
         <v>301</v>
       </c>
-      <c r="D133">
-        <f>_xlfn.CEILING.MATH(C133/30)</f>
+      <c r="E133">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>23.977</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2009.852511</v>
       </c>
       <c r="B134">
-        <f>_xlfn.FLOOR.MATH(A134)</f>
+        <f t="shared" si="14"/>
         <v>2009</v>
       </c>
       <c r="C134">
-        <f>ROUND(MOD(A134,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>311.16651500001808</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="15"/>
         <v>311</v>
       </c>
-      <c r="D134">
-        <f>_xlfn.CEILING.MATH(C134/30)</f>
+      <c r="E134">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>23.4038</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2009.8607</v>
       </c>
       <c r="B135">
-        <f>_xlfn.FLOOR.MATH(A135)</f>
+        <f t="shared" si="14"/>
         <v>2009</v>
       </c>
       <c r="C135">
-        <f>ROUND(MOD(A135,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>314.15549999998234</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="15"/>
         <v>314</v>
       </c>
-      <c r="D135">
-        <f>_xlfn.CEILING.MATH(C135/30)</f>
+      <c r="E135">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>23.216000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1996.9617000000001</v>
       </c>
       <c r="B136">
-        <f>_xlfn.FLOOR.MATH(A136)</f>
+        <f t="shared" si="14"/>
         <v>1996</v>
       </c>
       <c r="C136">
-        <f>ROUND(MOD(A136,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>351.0205000000235</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="15"/>
         <v>351</v>
       </c>
-      <c r="D136">
-        <f>_xlfn.CEILING.MATH(C136/30)</f>
+      <c r="E136">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>20.541</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1997.9232999999999</v>
       </c>
       <c r="B137">
-        <f>_xlfn.FLOOR.MATH(A137)</f>
+        <f t="shared" si="14"/>
         <v>1997</v>
       </c>
       <c r="C137">
-        <f>ROUND(MOD(A137,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>337.00449999997318</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="15"/>
         <v>337</v>
       </c>
-      <c r="D137">
-        <f>_xlfn.CEILING.MATH(C137/30)</f>
+      <c r="E137">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>22.170999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1998.9589000000001</v>
       </c>
       <c r="B138">
-        <f>_xlfn.FLOOR.MATH(A138)</f>
+        <f t="shared" si="14"/>
         <v>1998</v>
       </c>
       <c r="C138">
-        <f>ROUND(MOD(A138,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>349.99850000003107</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="15"/>
         <v>350</v>
       </c>
-      <c r="D138">
-        <f>_xlfn.CEILING.MATH(C138/30)</f>
+      <c r="E138">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>20.145</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2000.9126000000001</v>
       </c>
       <c r="B139">
-        <f>_xlfn.FLOOR.MATH(A139)</f>
+        <f t="shared" si="14"/>
         <v>2000</v>
       </c>
       <c r="C139">
-        <f>ROUND(MOD(A139,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>333.09900000004063</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="15"/>
         <v>333</v>
       </c>
-      <c r="D139">
-        <f>_xlfn.CEILING.MATH(C139/30)</f>
+      <c r="E139">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>20.983000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2004.9522999999999</v>
       </c>
       <c r="B140">
-        <f>_xlfn.FLOOR.MATH(A140)</f>
+        <f t="shared" si="14"/>
         <v>2004</v>
       </c>
       <c r="C140">
-        <f>ROUND(MOD(A140,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>347.58949999997185</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="15"/>
         <v>348</v>
       </c>
-      <c r="D140">
-        <f>_xlfn.CEILING.MATH(C140/30)</f>
+      <c r="E140">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>21.115100000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2005.9331</v>
       </c>
       <c r="B141">
-        <f>_xlfn.FLOOR.MATH(A141)</f>
+        <f t="shared" si="14"/>
         <v>2005</v>
       </c>
       <c r="C141">
-        <f>ROUND(MOD(A141,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>340.58149999998818</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="15"/>
         <v>341</v>
       </c>
-      <c r="D141">
-        <f>_xlfn.CEILING.MATH(C141/30)</f>
+      <c r="E141">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>20.7898</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2006.9753000000001</v>
       </c>
       <c r="B142">
-        <f>_xlfn.FLOOR.MATH(A142)</f>
+        <f t="shared" si="14"/>
         <v>2006</v>
       </c>
       <c r="C142">
-        <f>ROUND(MOD(A142,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>355.98450000002231</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="15"/>
         <v>356</v>
       </c>
-      <c r="D142">
-        <f>_xlfn.CEILING.MATH(C142/30)</f>
+      <c r="E142">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>20.388999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2008.9249</v>
       </c>
       <c r="B143">
-        <f>_xlfn.FLOOR.MATH(A143)</f>
+        <f t="shared" si="14"/>
         <v>2008</v>
       </c>
       <c r="C143">
-        <f>ROUND(MOD(A143,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>337.58849999999256</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="15"/>
         <v>338</v>
       </c>
-      <c r="D143">
-        <f>_xlfn.CEILING.MATH(C143/30)</f>
+      <c r="E143">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2008.9331</v>
       </c>
       <c r="B144">
-        <f>_xlfn.FLOOR.MATH(A144)</f>
+        <f t="shared" si="14"/>
         <v>2008</v>
       </c>
       <c r="C144">
-        <f>ROUND(MOD(A144,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>340.58149999998818</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="15"/>
         <v>341</v>
       </c>
-      <c r="D144">
-        <f>_xlfn.CEILING.MATH(C144/30)</f>
+      <c r="E144">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>20.133099999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2005.9973</v>
       </c>
       <c r="B145">
-        <f>_xlfn.FLOOR.MATH(A145)</f>
+        <f t="shared" si="14"/>
         <v>2005</v>
       </c>
       <c r="C145">
-        <f>ROUND(MOD(A145,1)*365, 0)</f>
+        <f t="shared" si="17"/>
+        <v>364.01449999999841</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
-      <c r="D145">
-        <f>_xlfn.CEILING.MATH(C145/30)</f>
+      <c r="E145">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>19.989999999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E145" xr:uid="{0128725E-4930-4EB4-B7CF-84D27D8ABCA4}">
-    <sortState ref="A2:E145">
-      <sortCondition ref="D1:D145"/>
+  <autoFilter ref="A1:F145" xr:uid="{0128725E-4930-4EB4-B7CF-84D27D8ABCA4}">
+    <sortState ref="A2:F145">
+      <sortCondition ref="E1:E145"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
